--- a/Hardware/Analog/Analog.xlsx
+++ b/Hardware/Analog/Analog.xlsx
@@ -286,13 +286,13 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.04      $0.42
-   100   $0.02      $1.86
-   500   $0.01      $6.64
-  1000   $0.01     $10.44
-  4000   $0.01     $30.36
-  8000   $0.01     $55.44
- 12000   $0.01     $79.20</t>
+    10   $0.03      $0.33
+   100   $0.01      $1.49
+   500   $0.01      $5.31
+  1000   $0.01      $8.35
+  4000   $0.01     $24.28
+  8000   $0.01     $44.32
+ 12000   $0.01     $63.36</t>
         </r>
       </text>
     </comment>
@@ -582,6 +582,32 @@
       </text>
     </comment>
     <comment ref="L22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.01      $0.15
+   100   $0.01      $0.60
+  1000   $0.00      $2.68
+  2500   $0.00      $5.83
+  5000   $0.00      $9.60
+ 10000   $0.00     $16.70
+ 25000   $0.00     $36.75
+ 50000   $0.00     $67.50
+125000   $0.00    $165.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -607,32 +633,6 @@
  25000   $0.05   $1370.75
  50000   $0.05   $2687.50
 125000   $0.05   $6653.75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.01      $0.15
-   100   $0.01      $0.60
-  1000   $0.00      $2.68
-  2500   $0.00      $5.83
-  5000   $0.00      $9.60
- 10000   $0.00     $16.70
- 25000   $0.00     $36.75
- 50000   $0.00     $67.50
-125000   $0.00    $165.00</t>
         </r>
       </text>
     </comment>
@@ -1344,9 +1344,14 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.04      $0.42
-   100   $0.02      $1.90
-  4000   $0.02     $76.00</t>
+    10   $0.03      $0.33
+   100   $0.01      $1.50
+   500   $0.01      $5.50
+  1000   $0.01      $9.00
+  4000   $0.01     $28.00
+  8000   $0.01     $48.00
+ 24000   $0.01    $120.00
+ 48000   $0.00    $192.00</t>
         </r>
       </text>
     </comment>
@@ -1533,7 +1538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0">
+    <comment ref="Q22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1991,6 +1996,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="T7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T13" authorId="0">
       <text>
         <r>
@@ -2062,6 +2081,20 @@
       </text>
     </comment>
     <comment ref="T33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2179,12 +2212,12 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    25   $0.04      $1.05
-    50   $0.03      $1.55
-   100   $0.02      $1.90
-   250   $0.02      $4.25
-   500   $0.01      $7.00
-  1000   $0.01     $11.00</t>
+    25   $0.03      $0.83
+    50   $0.02      $1.20
+   100   $0.01      $1.50
+   250   $0.01      $3.25
+   500   $0.01      $5.50
+  1000   $0.01      $9.00</t>
         </r>
       </text>
     </comment>
@@ -2270,7 +2303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V23" authorId="0">
+    <comment ref="V22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2522,11 +2555,14 @@
           <t xml:space="preserve">Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $2.50      $2.50
-    10   $2.13     $21.30
-   100   $1.70    $170.00
-   500   $1.49    $745.00
-  1000   $1.24   $1240.00</t>
+     1   $2.54      $2.54
+    10   $2.16     $21.60
+    25   $2.02     $50.50
+    50   $1.87     $93.50
+   100   $1.73    $173.00
+   250   $1.62    $405.00
+   500   $1.51    $755.00
+  1000   $1.25   $1250.00</t>
         </r>
       </text>
     </comment>
@@ -2543,10 +2579,13 @@
           <t xml:space="preserve">Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1  $12.66     $12.66
-    10  $11.63    $116.30
-    25  $11.33    $283.25
-   100   $9.82    $982.00</t>
+     1  $12.84     $12.84
+    10  $11.81    $118.10
+    25  $11.20    $280.00
+    50  $10.59    $529.50
+   100   $9.97    $997.00
+   250   $9.48   $2370.00
+   500   $8.87   $4435.00</t>
         </r>
       </text>
     </comment>
@@ -2599,14 +2638,11 @@
           <t xml:space="preserve">Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $7.05      $7.05
-    10   $6.37     $63.70
-    25   $5.90    $147.50
-    50   $5.63    $281.50
-   100   $5.27    $527.00
-   250   $5.04   $1260.00
-   500   $4.59   $2295.00
-  1000   $3.71   $3710.00</t>
+     1   $7.15      $7.15
+    10   $6.46     $64.60
+    25   $6.16    $154.00
+    50   $5.76    $288.00
+   100   $5.35    $535.00</t>
         </r>
       </text>
     </comment>
@@ -2623,10 +2659,10 @@
           <t xml:space="preserve">Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $5.10      $5.10
-    10   $4.90     $49.00
-    25   $4.86    $121.50
-   100   $4.78    $478.00</t>
+     1   $5.22      $5.22
+    10   $5.01     $50.10
+    25   $4.97    $124.25
+   100   $4.89    $489.00</t>
         </r>
       </text>
     </comment>
@@ -2687,20 +2723,6 @@
           <t xml:space="preserve">Available quantity of each part at the distributor.
 Red -&gt; No quantity available.
 Orange -&gt; Too little quantity available.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -2828,6 +2850,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.03      $0.03
+    25   $0.03      $0.65
+   125   $0.02      $2.82</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AA10" authorId="0">
       <text>
         <r>
@@ -3096,7 +3137,7 @@
 ================
      1   $0.01      $0.01
    100   $0.01      $0.61
-  1000   $0.00      $3.08
+  1000   $0.00      $3.07
   4000   $0.00      $8.60
  20000   $0.00     $41.60</t>
         </r>
@@ -3118,8 +3159,8 @@
      1   $0.02      $0.02
    100   $0.02      $2.48
    300   $0.02      $5.32
-  1000   $0.01     $13.49
-  4000   $0.01     $44.04
+  1000   $0.01     $13.48
+  4000   $0.01     $44.00
  20000   $0.01    $205.80</t>
         </r>
       </text>
@@ -3138,10 +3179,11 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.01      $0.01
-   100   $0.01      $1.12
-  1000   $0.01      $5.16
-  4000   $0.00     $17.20
- 20000   $0.00     $83.00</t>
+   100   $0.01      $0.82
+   300   $0.00      $1.27
+  1000   $0.00      $3.11
+  4000   $0.00      $9.00
+ 12000   $0.00     $25.80</t>
         </r>
       </text>
     </comment>
@@ -3160,7 +3202,7 @@
 ================
      1   $0.01      $0.01
    100   $0.01      $0.67
-  1000   $0.00      $3.47
+  1000   $0.00      $3.46
   5000   $0.00      $4.25
  15000   $0.00     $11.40
  50000   $0.00     $35.00</t>
@@ -3182,7 +3224,7 @@
 ================
      1   $0.01      $0.01
    100   $0.01      $0.67
-  1000   $0.00      $3.47
+  1000   $0.00      $3.46
   5000   $0.00      $4.25
  15000   $0.00     $11.40
  50000   $0.00     $35.00</t>
@@ -3249,8 +3291,8 @@
      1   $0.13      $0.13
      5   $0.13      $0.64
     50   $0.09      $4.26
-   250   $0.06     $16.18
-  1000   $0.06     $57.98</t>
+   250   $0.06     $16.17
+  1000   $0.06     $57.93</t>
         </r>
       </text>
     </comment>
@@ -3270,9 +3312,9 @@
      1   $0.38      $0.38
      2   $0.38      $0.75
     10   $0.26      $2.56
-    50   $0.22     $10.95
-   250   $0.20     $48.80
-  1000   $0.17    $171.60</t>
+    50   $0.22     $10.94
+   250   $0.20     $48.77
+  1000   $0.17    $171.40</t>
         </r>
       </text>
     </comment>
@@ -3325,7 +3367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="292">
   <si>
     <t xml:space="preserve">Proj:</t>
   </si>
@@ -3348,7 +3390,7 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-12-01 11:53:26</t>
+    <t xml:space="preserve">2017-12-07 13:41:43</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Cost:</t>
@@ -3408,7 +3450,7 @@
     <t xml:space="preserve">Cat#</t>
   </si>
   <si>
-    <t xml:space="preserve">C101,C106,C206,C210-C217</t>
+    <t xml:space="preserve">C101,C104,C206,C210-C217</t>
   </si>
   <si>
     <t xml:space="preserve">0.1µF</t>
@@ -3468,36 +3510,39 @@
     <t xml:space="preserve">C103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7nF</t>
+    <t xml:space="preserve">100pF</t>
   </si>
   <si>
     <t xml:space="preserve">KEMET</t>
   </si>
   <si>
-    <t xml:space="preserve">C0603C472J5RACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399-1088-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-C0603C472J5R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52K5445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">869-1777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0603C472J5RAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C104,C105</t>
+    <t xml:space="preserve">C0603C101J5GACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399-1061-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-C0603C101J5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64K2833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264-4523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C101J5GAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C105,C106</t>
   </si>
   <si>
     <t xml:space="preserve">150µF</t>
   </si>
   <si>
+    <t xml:space="preserve">Capacitors_SMD:CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wurth Electronics Inc.</t>
   </si>
   <si>
@@ -3537,6 +3582,9 @@
     <t xml:space="preserve">APG1608ZGCK</t>
   </si>
   <si>
+    <t xml:space="preserve">LEDs:LED_0603</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kingbright</t>
   </si>
   <si>
@@ -3552,6 +3600,9 @@
     <t xml:space="preserve">BAT46WQ-7-F</t>
   </si>
   <si>
+    <t xml:space="preserve">Diodes_SMD:D_SOD-123</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diodes Incorporated</t>
   </si>
   <si>
@@ -3591,6 +3642,9 @@
     <t xml:space="preserve">Pomona 4mm 30A connector</t>
   </si>
   <si>
+    <t xml:space="preserve">Connectors:Banana_Jack_2Pin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pomona Electronics</t>
   </si>
   <si>
@@ -3615,6 +3669,9 @@
     <t xml:space="preserve">02x15 IDC</t>
   </si>
   <si>
+    <t xml:space="preserve">Conn_IDC:IDC-Header_2x15_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t xml:space="preserve">On Shore Technology Inc.</t>
   </si>
   <si>
@@ -3630,7 +3687,7 @@
     <t xml:space="preserve">PHP23NQ11T</t>
   </si>
   <si>
-    <t xml:space="preserve">TO-220_plated_mount:TO-220_Horizontal</t>
+    <t xml:space="preserve">NikLoad:TO-220_Horizontal</t>
   </si>
   <si>
     <t xml:space="preserve">Nexperia USA Inc.</t>
@@ -3651,6 +3708,9 @@
     <t xml:space="preserve">2N7002</t>
   </si>
   <si>
+    <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">2N7002P\,235</t>
   </si>
   <si>
@@ -3663,12 +3723,15 @@
     <t xml:space="preserve">54T9625</t>
   </si>
   <si>
-    <t xml:space="preserve">R101,R208,R211</t>
+    <t xml:space="preserve">R101,R210,R213</t>
   </si>
   <si>
     <t xml:space="preserve">1k</t>
   </si>
   <si>
+    <t xml:space="preserve">Resistors_SMD:R_1206</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stackpole Electronics Inc.</t>
   </si>
   <si>
@@ -3678,12 +3741,15 @@
     <t xml:space="preserve">RNCF1206TKY1K00CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R102-R113,R145,R146</t>
+    <t xml:space="preserve">R102-R113,R146,R147</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
   </si>
   <si>
+    <t xml:space="preserve">Resistors_SMD:R_0603</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yageo</t>
   </si>
   <si>
@@ -3702,7 +3768,7 @@
     <t xml:space="preserve">RC0603FR-07100R</t>
   </si>
   <si>
-    <t xml:space="preserve">R114,R201,R202,R220-R222</t>
+    <t xml:space="preserve">R114</t>
   </si>
   <si>
     <t xml:space="preserve">100k</t>
@@ -3723,7 +3789,25 @@
     <t xml:space="preserve">RC0603FR-07100K</t>
   </si>
   <si>
-    <t xml:space="preserve">R115-R126</t>
+    <t xml:space="preserve">R115,R128-R135,R144,R145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0733RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311-33.0HRCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-0733RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68R0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R116-R127</t>
   </si>
   <si>
     <t xml:space="preserve">0R02</t>
@@ -3735,25 +3819,7 @@
     <t xml:space="preserve">1276-6161-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R127-R134,R143,R144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0733RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311-33.0HRCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0733RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68R0085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R135-R142</t>
+    <t xml:space="preserve">R136-R143,R201,R202,R204,R205,R222-R224,R226-R228</t>
   </si>
   <si>
     <t xml:space="preserve">51k1</t>
@@ -3771,19 +3837,22 @@
     <t xml:space="preserve">66R2455</t>
   </si>
   <si>
-    <t xml:space="preserve">R203-R205,R207,R212-R217,R224-R227</t>
+    <t xml:space="preserve">R203,R206,R207,R209,R214-R219,R229-R232</t>
   </si>
   <si>
     <t xml:space="preserve">20k</t>
   </si>
   <si>
+    <t xml:space="preserve">Resistors_SMD:R_0805</t>
+  </si>
+  <si>
     <t xml:space="preserve">RNCF0805TKT20K0</t>
   </si>
   <si>
     <t xml:space="preserve">RNCF0805TKT20K0CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R206</t>
+    <t xml:space="preserve">R208</t>
   </si>
   <si>
     <t xml:space="preserve">990k</t>
@@ -3798,12 +3867,15 @@
     <t xml:space="preserve">764-1556-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R209</t>
+    <t xml:space="preserve">R211</t>
   </si>
   <si>
     <t xml:space="preserve">2mOhm</t>
   </si>
   <si>
+    <t xml:space="preserve">NikLoad:R_3920</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bourns Inc.</t>
   </si>
   <si>
@@ -3822,7 +3894,7 @@
     <t xml:space="preserve">134-8152</t>
   </si>
   <si>
-    <t xml:space="preserve">R210</t>
+    <t xml:space="preserve">R212</t>
   </si>
   <si>
     <t xml:space="preserve">41.2k</t>
@@ -3840,7 +3912,7 @@
     <t xml:space="preserve">667-ERA-8ARW4122V</t>
   </si>
   <si>
-    <t xml:space="preserve">R218</t>
+    <t xml:space="preserve">R220</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -3861,7 +3933,7 @@
     <t xml:space="preserve">RC0603FR-0710K</t>
   </si>
   <si>
-    <t xml:space="preserve">R219</t>
+    <t xml:space="preserve">R221</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603JR-0733RL</t>
@@ -3876,7 +3948,7 @@
     <t xml:space="preserve">RC0603JR-0733R</t>
   </si>
   <si>
-    <t xml:space="preserve">R223</t>
+    <t xml:space="preserve">R225</t>
   </si>
   <si>
     <t xml:space="preserve">60k4</t>
@@ -3903,9 +3975,6 @@
     <t xml:space="preserve">5V</t>
   </si>
   <si>
-    <t xml:space="preserve">Resistors_SMD:R_0603</t>
-  </si>
-  <si>
     <t xml:space="preserve">AVX Corporation</t>
   </si>
   <si>
@@ -3933,6 +4002,9 @@
     <t xml:space="preserve">OPA180</t>
   </si>
   <si>
+    <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Texas Instruments</t>
   </si>
   <si>
@@ -3954,6 +4026,9 @@
     <t xml:space="preserve">74HC595</t>
   </si>
   <si>
+    <t xml:space="preserve">Housings_SOIC:SOIC-16_3.9x9.9mm_Pitch1.27mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">STMicroelectronics</t>
   </si>
   <si>
@@ -4026,6 +4101,9 @@
     <t xml:space="preserve">OPA388</t>
   </si>
   <si>
+    <t xml:space="preserve">Housings_SOIC:SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">OPA388IDR</t>
   </si>
   <si>
@@ -4044,6 +4122,9 @@
     <t xml:space="preserve">ADS127L01</t>
   </si>
   <si>
+    <t xml:space="preserve">Housings_QFP:LQFP-32_5x5mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADS127L01IPBSR</t>
   </si>
   <si>
@@ -4062,6 +4143,9 @@
     <t xml:space="preserve">TXETCLSANF-16.384MHz</t>
   </si>
   <si>
+    <t xml:space="preserve">Crystals:Crystal_SMD_3225-4pin_3.2x2.5mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taitien</t>
   </si>
   <si>
@@ -4077,6 +4161,9 @@
     <t xml:space="preserve">NX3L4357</t>
   </si>
   <si>
+    <t xml:space="preserve">NikLoad:NX3L4357</t>
+  </si>
+  <si>
     <t xml:space="preserve">NXP USA Inc.</t>
   </si>
   <si>
@@ -4098,6 +4185,9 @@
     <t xml:space="preserve">MCP4921T-E/MS</t>
   </si>
   <si>
+    <t xml:space="preserve">Housings_SSOP:MSOP-8_3x3mm_Pitch0.65mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Microchip Technology</t>
   </si>
   <si>
@@ -4114,6 +4204,9 @@
   </si>
   <si>
     <t xml:space="preserve">DAC8560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housings_SSOP:VSSOP-8_3.0x3.0mm_Pitch0.65mm</t>
   </si>
   <si>
     <t xml:space="preserve">DAC8560IADGKT</t>
@@ -4589,27 +4682,27 @@
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">SUM(I7:I43)</f>
-        <v>96.491197</v>
+        <v>97.048567</v>
       </c>
       <c r="M2" s="4" t="n">
         <f aca="false">SUM(M7:M43)</f>
-        <v>109.272</v>
+        <v>108.257</v>
       </c>
       <c r="R2" s="4" t="n">
         <f aca="false">SUM(R7:R43)</f>
-        <v>71.263</v>
+        <v>70.134</v>
       </c>
       <c r="W2" s="4" t="n">
         <f aca="false">SUM(W7:W43)</f>
-        <v>654.013</v>
+        <v>654.277</v>
       </c>
       <c r="AB2" s="4" t="n">
         <f aca="false">SUM(AB7:AB43)</f>
-        <v>17.440252</v>
+        <v>17.46641</v>
       </c>
       <c r="AG2" s="4" t="n">
         <f aca="false">SUM(AG7:AG43)</f>
-        <v>2.45906</v>
+        <v>2.42069</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +4717,7 @@
       </c>
       <c r="I3" s="5" t="n">
         <f aca="false">TotalCost/BoardQty</f>
-        <v>96.491197</v>
+        <v>97.048567</v>
       </c>
       <c r="M3" s="6" t="str">
         <f aca="false">(ROWS(M7:M43)-COUNTBLANK(M7:M43))&amp;" of "&amp;ROWS(M7:M43)&amp;" parts found"</f>
@@ -4640,7 +4733,7 @@
       </c>
       <c r="AB3" s="6" t="str">
         <f aca="false">(ROWS(AB7:AB43)-COUNTBLANK(AB7:AB43))&amp;" of "&amp;ROWS(AB7:AB43)&amp;" parts found"</f>
-        <v>7 of 37 parts found</v>
+        <v>8 of 37 parts found</v>
       </c>
       <c r="AG3" s="6" t="str">
         <f aca="false">(ROWS(AG7:AG43)-COUNTBLANK(AG7:AG43))&amp;" of "&amp;ROWS(AG7:AG43)&amp;" parts found"</f>
@@ -4828,7 +4921,7 @@
         <v>0.06765</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>36533</v>
+        <v>9327</v>
       </c>
       <c r="L7" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K7="",G7,K7),{0,1,10,100,500,1000,4000,8000,12000},{0,0.1,0.031,0.0136,0.00974,0.00765,0.00557,0.00508,0.00484}),"")</f>
@@ -4855,8 +4948,8 @@
       <c r="S7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="0" t="n">
-        <v>2340</v>
+      <c r="T7" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="V7" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(U7="",G7,U7),{0,1,25,50,100,250,500,1000},{0,0.1,0.031,0.023,0.014,0.012,0.01,0.008}),"")</f>
@@ -4887,7 +4980,7 @@
         <v>33</v>
       </c>
       <c r="AF7" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(AE7="",G7,AE7),{0,1,100,1000,4000,20000},{0,0.00615,0.00615,0.00308,0.00215,0.00208}),"")</f>
+        <f aca="false">IFERROR(LOOKUP(IF(AE7="",G7,AE7),{0,1,100,1000,4000,20000},{0,0.00615,0.00615,0.00307,0.00215,0.00208}),"")</f>
         <v>0.00615</v>
       </c>
       <c r="AG7" s="14" t="n">
@@ -4920,14 +5013,14 @@
       </c>
       <c r="H8" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0.02485</v>
+        <v>0.02483</v>
       </c>
       <c r="I8" s="14" t="n">
         <f aca="false">IFERROR(G8*H8,"")</f>
-        <v>0.1988</v>
+        <v>0.19864</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>125494</v>
+        <v>266480</v>
       </c>
       <c r="L8" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K8="",G8,K8),{0,1,10,100,500,1000,4000,8000,12000},{0,0.1,0.07,0.031,0.02214,0.01739,0.01265,0.01155,0.011}),"")</f>
@@ -4941,7 +5034,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>55733</v>
+        <v>155233</v>
       </c>
       <c r="Q8" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P8="",G8,P8),{0,1,10,100,500,1000,4000},{0,0.201,0.083,0.057,0.05,0.042,0.033}),"")</f>
@@ -4983,15 +5076,15 @@
         <v>44</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>8300</v>
+        <v>6800</v>
       </c>
       <c r="AF8" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(AE8="",G8,AE8),{0,1,100,300,1000,4000,20000},{0,0.02485,0.02485,0.01775,0.01349,0.01101,0.01029}),"")</f>
-        <v>0.02485</v>
+        <f aca="false">IFERROR(LOOKUP(IF(AE8="",G8,AE8),{0,1,100,300,1000,4000,20000},{0,0.02483,0.02483,0.01774,0.01348,0.011,0.01029}),"")</f>
+        <v>0.02483</v>
       </c>
       <c r="AG8" s="14" t="n">
         <f aca="false">IFERROR(IF(AE8="",G8,AE8)*AF8,"")</f>
-        <v>0.1988</v>
+        <v>0.19864</v>
       </c>
       <c r="AH8" s="15" t="s">
         <v>45</v>
@@ -5019,17 +5112,17 @@
       </c>
       <c r="H9" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0.01117</v>
+        <v>0.00821</v>
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">IFERROR(G9*H9,"")</f>
-        <v>0.01117</v>
+        <v>0.00821</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>147334</v>
+        <v>2003175</v>
       </c>
       <c r="L9" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(K9="",G9,K9),{0,1,10,100,500,1000,4000,8000,12000},{0,0.1,0.042,0.0186,0.01328,0.01044,0.00759,0.00693,0.0066}),"")</f>
+        <f aca="false">IFERROR(LOOKUP(IF(K9="",G9,K9),{0,1,10,100,500,1000,4000,8000,12000},{0,0.1,0.033,0.0149,0.01062,0.00835,0.00607,0.00554,0.00528}),"")</f>
         <v>0.1</v>
       </c>
       <c r="M9" s="14" t="n">
@@ -5040,10 +5133,10 @@
         <v>50</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>50557</v>
+        <v>489211</v>
       </c>
       <c r="Q9" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(P9="",G9,P9),{0,1,10,100,4000},{0,0.1,0.042,0.019,0.019}),"")</f>
+        <f aca="false">IFERROR(LOOKUP(IF(P9="",G9,P9),{0,1,10,100,500,1000,4000,8000,24000,48000},{0,0.1,0.033,0.015,0.011,0.009,0.007,0.006,0.005,0.004}),"")</f>
         <v>0.1</v>
       </c>
       <c r="R9" s="14" t="n">
@@ -5054,10 +5147,10 @@
         <v>51</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>951</v>
+        <v>3049</v>
       </c>
       <c r="V9" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(U9="",G9,U9),{0,1,25,50,100,250,500,1000},{0,0.1,0.042,0.031,0.019,0.017,0.014,0.011}),"")</f>
+        <f aca="false">IFERROR(LOOKUP(IF(U9="",G9,U9),{0,1,25,50,100,250,500,1000},{0,0.1,0.033,0.024,0.015,0.013,0.011,0.009}),"")</f>
         <v>0.1</v>
       </c>
       <c r="W9" s="14" t="n">
@@ -5067,22 +5160,30 @@
       <c r="X9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="16" t="s">
-        <v>33</v>
+      <c r="Y9" s="0" t="n">
+        <v>5375</v>
+      </c>
+      <c r="AA9" s="14" t="n">
+        <f aca="false">IFERROR(LOOKUP(IF(Z9="",G9,Z9),{0,1,25,125},{0,0.026158,0.026158,0.022591}),"")</f>
+        <v>0.026158</v>
+      </c>
+      <c r="AB9" s="14" t="n">
+        <f aca="false">IFERROR(IF(Z9="",G9,Z9)*AA9,"")</f>
+        <v>0.026158</v>
       </c>
       <c r="AC9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>31100</v>
+        <v>52100</v>
       </c>
       <c r="AF9" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(AE9="",G9,AE9),{0,1,100,1000,4000,20000},{0,0.01117,0.01117,0.00516,0.0043,0.00415}),"")</f>
-        <v>0.01117</v>
+        <f aca="false">IFERROR(LOOKUP(IF(AE9="",G9,AE9),{0,1,100,300,1000,4000,12000},{0,0.00821,0.00821,0.00423,0.00311,0.00225,0.00215}),"")</f>
+        <v>0.00821</v>
       </c>
       <c r="AG9" s="14" t="n">
         <f aca="false">IFERROR(IF(AE9="",G9,AE9)*AF9,"")</f>
-        <v>0.01117</v>
+        <v>0.00821</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>54</v>
@@ -5095,11 +5196,14 @@
       <c r="B10" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">BoardQty*2</f>
@@ -5125,7 +5229,7 @@
         <v>1.3</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>1680</v>
@@ -5139,7 +5243,7 @@
         <v>1.416</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>105</v>
@@ -5153,24 +5257,24 @@
         <v>1.322168</v>
       </c>
       <c r="AC10" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">BoardQty*6</f>
@@ -5185,7 +5289,7 @@
         <v>0.9</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>78842</v>
+        <v>74773</v>
       </c>
       <c r="L11" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K11="",G11,K11),{0,1,10,100,500,1000,2000,4000},{0,0.15,0.104,0.049,0.03436,0.02844,0.02647,0.02422}),"")</f>
@@ -5196,21 +5300,24 @@
         <v>0.9</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">BoardQty*2</f>
@@ -5236,27 +5343,30 @@
         <v>1</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>33</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">BoardQty*3</f>
@@ -5271,7 +5381,7 @@
         <v>1.2</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>2067</v>
+        <v>1867</v>
       </c>
       <c r="L13" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K13="",G13,K13),{0,1,10,100,500,1000,3000,6000,15000,30000,75000},{0,0.4,0.303,0.1886,0.12902,0.09924,0.09636,0.08672,0.07709,0.07227,0.06408}),"")</f>
@@ -5282,10 +5392,10 @@
         <v>1.2</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>3228</v>
+        <v>3125</v>
       </c>
       <c r="Q13" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P13="",G13,P13),{0,1,10,100,1000,3000,9000,24000,45000,99000},{0,0.481,0.361,0.204,0.104,0.079,0.071,0.066,0.058,0.057}),"")</f>
@@ -5296,30 +5406,30 @@
         <v>1.443</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -5334,7 +5444,7 @@
         <v>0.151</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>49191</v>
+        <v>49106</v>
       </c>
       <c r="L14" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K14="",G14,K14),{0,1,5,10,50,100,250,500,1000,2000,4000,6000,10000},{0,0.18,0.172,0.164,0.1462,0.1361,0.12096,0.1008,0.09576,0.07854,0.07392,0.0693,0.06468}),"")</f>
@@ -5345,7 +5455,7 @@
         <v>0.18</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>13199</v>
@@ -5359,21 +5469,24 @@
         <v>0.151</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -5388,7 +5501,7 @@
         <v>2.77</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1759</v>
+        <v>616</v>
       </c>
       <c r="L15" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K15="",G15,K15),{0,1,25,50,100},{0,2.77,2.6316,2.493,2.3822}),"")</f>
@@ -5399,10 +5512,10 @@
         <v>2.77</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>5707</v>
+        <v>6838</v>
       </c>
       <c r="Q15" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P15="",G15,P15),{0,1,10,50,100,250,500,1000},{0,3.09,2.97,2.75,2.68,2.57,2.48,2.42}),"")</f>
@@ -5413,10 +5526,10 @@
         <v>3.09</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="V15" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(U15="",G15,U15),{0,1},{0,2.77}),"")</f>
@@ -5427,27 +5540,30 @@
         <v>2.77</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AC15" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -5462,7 +5578,7 @@
         <v>0.52</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>15687</v>
+        <v>14937</v>
       </c>
       <c r="L16" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K16="",G16,K16),{0,1,10,100,500,1000,5000,10000},{0,0.52,0.483,0.3703,0.322,0.26565,0.23345,0.21735}),"")</f>
@@ -5473,24 +5589,24 @@
         <v>0.52</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">BoardQty*12</f>
@@ -5516,7 +5632,7 @@
         <v>10.824</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>4795</v>
@@ -5530,21 +5646,24 @@
         <v>8.916</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">BoardQty*2</f>
@@ -5559,7 +5678,7 @@
         <v>0.038</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>231762</v>
+        <v>225279</v>
       </c>
       <c r="L18" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K18="",G18,K18),{0,1,10,100,500,1000,3000,10000},{0,0.16,0.148,0.0969,0.04738,0.03231,0.02665,0.0209}),"")</f>
@@ -5570,7 +5689,7 @@
         <v>0.32</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>33</v>
@@ -5584,7 +5703,7 @@
         <v>0.28</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="T18" s="16" t="s">
         <v>33</v>
@@ -5598,21 +5717,24 @@
         <v>0.038</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">BoardQty*3</f>
@@ -5627,7 +5749,7 @@
         <v>6.99</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="L19" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K19="",G19,K19),{0,1,10,100,1000},{0,2.33,2.065,1.5766,0.9425}),"")</f>
@@ -5638,21 +5760,24 @@
         <v>6.99</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">BoardQty*14</f>
@@ -5660,14 +5785,14 @@
       </c>
       <c r="H20" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0.0067</v>
+        <v>0.00669</v>
       </c>
       <c r="I20" s="14" t="n">
         <f aca="false">IFERROR(G20*H20,"")</f>
-        <v>0.0938</v>
+        <v>0.09366</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>4605181</v>
+        <v>3306026</v>
       </c>
       <c r="L20" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K20="",G20,K20),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
@@ -5678,10 +5803,10 @@
         <v>0.21</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>497627</v>
+        <v>468213</v>
       </c>
       <c r="Q20" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P20="",G20,P20),{0,1,10,100,5000,50000},{0,0.1,0.009,0.004,0.002,0.001}),"")</f>
@@ -5692,10 +5817,10 @@
         <v>0.126</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>5852</v>
+        <v>4252</v>
       </c>
       <c r="V20" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(U20="",G20,U20),{0,1,10,25,100,250,1000},{0,0.08,0.014,0.01,0.006,0.004,0.003}),"")</f>
@@ -5706,50 +5831,53 @@
         <v>0.196</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AF20" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(AE20="",G20,AE20),{0,1,100,1000,5000,15000,50000},{0,0.0067,0.0067,0.00347,0.00085,0.00076,0.0007}),"")</f>
-        <v>0.0067</v>
+        <f aca="false">IFERROR(LOOKUP(IF(AE20="",G20,AE20),{0,1,100,1000,5000,15000,50000},{0,0.00669,0.00669,0.00346,0.00085,0.00076,0.0007}),"")</f>
+        <v>0.00669</v>
       </c>
       <c r="AG20" s="14" t="n">
         <f aca="false">IFERROR(IF(AE20="",G20,AE20)*AF20,"")</f>
-        <v>0.0938</v>
+        <v>0.09366</v>
       </c>
       <c r="AH20" s="15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>126</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G21" s="0" t="n">
-        <f aca="false">BoardQty*6</f>
-        <v>6</v>
+        <f aca="false">BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="H21" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0.0067</v>
+        <v>0.00669</v>
       </c>
       <c r="I21" s="14" t="n">
         <f aca="false">IFERROR(G21*H21,"")</f>
-        <v>0.0402</v>
+        <v>0.00669</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>2531464</v>
+        <v>2008089</v>
       </c>
       <c r="L21" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K21="",G21,K21),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
@@ -5757,10 +5885,10 @@
       </c>
       <c r="M21" s="14" t="n">
         <f aca="false">IFERROR(IF(K21="",G21,K21)*L21,"")</f>
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="O21" s="16" t="s">
         <v>33</v>
@@ -5771,13 +5899,13 @@
       </c>
       <c r="R21" s="14" t="n">
         <f aca="false">IFERROR(IF(P21="",G21,P21)*Q21,"")</f>
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>7455</v>
+        <v>5133</v>
       </c>
       <c r="V21" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(U21="",G21,U21),{0,1,10,25,100,250,1000},{0,0.08,0.014,0.01,0.006,0.004,0.003}),"")</f>
@@ -5785,150 +5913,159 @@
       </c>
       <c r="W21" s="14" t="n">
         <f aca="false">IFERROR(IF(U21="",G21,U21)*V21,"")</f>
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AD21" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AF21" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(AE21="",G21,AE21),{0,1,100,1000,5000,15000,50000},{0,0.0067,0.0067,0.00347,0.00085,0.00076,0.0007}),"")</f>
-        <v>0.0067</v>
+        <f aca="false">IFERROR(LOOKUP(IF(AE21="",G21,AE21),{0,1,100,1000,5000,15000,50000},{0,0.00669,0.00669,0.00346,0.00085,0.00076,0.0007}),"")</f>
+        <v>0.00669</v>
       </c>
       <c r="AG21" s="14" t="n">
         <f aca="false">IFERROR(IF(AE21="",G21,AE21)*AF21,"")</f>
-        <v>0.0402</v>
+        <v>0.00669</v>
       </c>
       <c r="AH21" s="15" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G22" s="0" t="n">
-        <f aca="false">BoardQty*12</f>
-        <v>12</v>
+        <f aca="false">BoardQty*11</f>
+        <v>11</v>
       </c>
       <c r="H22" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0.297</v>
+        <v>0.009</v>
       </c>
       <c r="I22" s="14" t="n">
         <f aca="false">IFERROR(G22*H22,"")</f>
-        <v>3.564</v>
+        <v>0.099</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>9508</v>
+        <v>2640877</v>
       </c>
       <c r="L22" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(K22="",G22,K22),{0,1,10,25,50,100,250,500,1000,5000,10000,25000,50000,125000},{0,0.39,0.297,0.2256,0.1678,0.1247,0.10536,0.0903,0.0688,0.05805,0.05676,0.05483,0.05375,0.05323}),"")</f>
-        <v>0.297</v>
+        <f aca="false">IFERROR(LOOKUP(IF(K22="",G22,K22),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
+        <v>0.015</v>
       </c>
       <c r="M22" s="14" t="n">
         <f aca="false">IFERROR(IF(K22="",G22,K22)*L22,"")</f>
-        <v>3.564</v>
+        <v>0.165</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>135</v>
+        <v>143</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>422532</v>
+      </c>
+      <c r="Q22" s="14" t="n">
+        <f aca="false">IFERROR(LOOKUP(IF(P22="",G22,P22),{0,1,10,100,5000,50000},{0,0.1,0.009,0.004,0.002,0.001}),"")</f>
+        <v>0.009</v>
+      </c>
+      <c r="R22" s="14" t="n">
+        <f aca="false">IFERROR(IF(P22="",G22,P22)*Q22,"")</f>
+        <v>0.099</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V22" s="14" t="n">
+        <f aca="false">IFERROR(LOOKUP(IF(U22="",G22,U22),{0,1,10,25,100,250,1000},{0,0.08,0.014,0.01,0.006,0.004,0.003}),"")</f>
+        <v>0.014</v>
+      </c>
+      <c r="W22" s="14" t="n">
+        <f aca="false">IFERROR(IF(U22="",G22,U22)*V22,"")</f>
+        <v>0.154</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G23" s="0" t="n">
-        <f aca="false">BoardQty*10</f>
-        <v>10</v>
+        <f aca="false">BoardQty*12</f>
+        <v>12</v>
       </c>
       <c r="H23" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0.009</v>
+        <v>0.297</v>
       </c>
       <c r="I23" s="14" t="n">
         <f aca="false">IFERROR(G23*H23,"")</f>
-        <v>0.09</v>
+        <v>3.564</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>1833768</v>
+        <v>8770</v>
       </c>
       <c r="L23" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(K23="",G23,K23),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
-        <v>0.015</v>
+        <f aca="false">IFERROR(LOOKUP(IF(K23="",G23,K23),{0,1,10,25,50,100,250,500,1000,5000,10000,25000,50000,125000},{0,0.39,0.297,0.2256,0.1678,0.1247,0.10536,0.0903,0.0688,0.05805,0.05676,0.05483,0.05375,0.05323}),"")</f>
+        <v>0.297</v>
       </c>
       <c r="M23" s="14" t="n">
         <f aca="false">IFERROR(IF(K23="",G23,K23)*L23,"")</f>
-        <v>0.15</v>
+        <v>3.564</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>429032</v>
-      </c>
-      <c r="Q23" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(P23="",G23,P23),{0,1,10,100,5000,50000},{0,0.1,0.009,0.004,0.002,0.001}),"")</f>
-        <v>0.009</v>
-      </c>
-      <c r="R23" s="14" t="n">
-        <f aca="false">IFERROR(IF(P23="",G23,P23)*Q23,"")</f>
-        <v>0.09</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="V23" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(U23="",G23,U23),{0,1,10,25,100,250,1000},{0,0.08,0.014,0.01,0.006,0.004,0.003}),"")</f>
-        <v>0.014</v>
-      </c>
-      <c r="W23" s="14" t="n">
-        <f aca="false">IFERROR(IF(U23="",G23,U23)*V23,"")</f>
-        <v>0.14</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G24" s="0" t="n">
-        <f aca="false">BoardQty*8</f>
-        <v>8</v>
+        <f aca="false">BoardQty*18</f>
+        <v>18</v>
       </c>
       <c r="H24" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
@@ -5936,35 +6073,35 @@
       </c>
       <c r="I24" s="14" t="n">
         <f aca="false">IFERROR(G24*H24,"")</f>
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>345874</v>
+        <v>444739</v>
       </c>
       <c r="L24" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K24="",G24,K24),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
-        <v>0.1</v>
+        <v>0.015</v>
       </c>
       <c r="M24" s="14" t="n">
         <f aca="false">IFERROR(IF(K24="",G24,K24)*L24,"")</f>
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>68975</v>
+        <v>68565</v>
       </c>
       <c r="Q24" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P24="",G24,P24),{0,1,10,100,5000,50000},{0,0.1,0.009,0.004,0.002,0.001}),"")</f>
-        <v>0.1</v>
+        <v>0.009</v>
       </c>
       <c r="R24" s="14" t="n">
         <f aca="false">IFERROR(IF(P24="",G24,P24)*Q24,"")</f>
-        <v>0.8</v>
+        <v>0.162</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="T24" s="16" t="s">
         <v>33</v>
@@ -5975,24 +6112,27 @@
       </c>
       <c r="W24" s="14" t="n">
         <f aca="false">IFERROR(IF(U24="",G24,U24)*V24,"")</f>
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G25" s="0" t="n">
         <f aca="false">BoardQty*14</f>
@@ -6007,7 +6147,7 @@
         <v>20.048</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>6972</v>
+        <v>6971</v>
       </c>
       <c r="L25" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K25="",G25,K25),{0,1,10,100,1000},{0,1.62,1.432,1.0395,0.58}),"")</f>
@@ -6018,21 +6158,24 @@
         <v>20.048</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6047,7 +6190,7 @@
         <v>0.88</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="L26" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K26="",G26,K26),{0,1,10,100,1000},{0,0.88,0.762,0.5313,0.29}),"")</f>
@@ -6058,21 +6201,24 @@
         <v>0.88</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6098,7 +6244,7 @@
         <v>1.67</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>5625</v>
@@ -6112,7 +6258,7 @@
         <v>1.68</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="T27" s="16" t="s">
         <v>33</v>
@@ -6126,27 +6272,30 @@
         <v>0.814</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Y27" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AC27" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>166</v>
+        <v>176</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6172,7 +6321,7 @@
         <v>1.77</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>33</v>
@@ -6186,21 +6335,24 @@
         <v>0.62</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G29" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6215,7 +6367,7 @@
         <v>0.00524</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>6672864</v>
+        <v>9253226</v>
       </c>
       <c r="L29" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K29="",G29,K29),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
@@ -6226,10 +6378,10 @@
         <v>0.1</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>795881</v>
+        <v>663939</v>
       </c>
       <c r="Q29" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P29="",G29,P29),{0,1,10,100,5000,50000},{0,0.1,0.009,0.004,0.002,0.001}),"")</f>
@@ -6240,10 +6392,10 @@
         <v>0.1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>4996</v>
+        <v>4921</v>
       </c>
       <c r="V29" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(U29="",G29,U29),{0,1,10,25,100,250,1000},{0,0.08,0.014,0.01,0.006,0.004,0.003}),"")</f>
@@ -6254,7 +6406,7 @@
         <v>0.08</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AD29" s="16" t="s">
         <v>33</v>
@@ -6268,21 +6420,24 @@
         <v>0.00524</v>
       </c>
       <c r="AH29" s="15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6297,7 +6452,7 @@
         <v>0.00533</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1833768</v>
+        <v>2640877</v>
       </c>
       <c r="L30" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K30="",G30,K30),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
@@ -6308,10 +6463,10 @@
         <v>0.1</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>267101</v>
+        <v>265902</v>
       </c>
       <c r="Q30" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P30="",G30,P30),{0,1,10,100,5000,50000},{0,0.1,0.008,0.002,0.002,0.001}),"")</f>
@@ -6322,7 +6477,7 @@
         <v>0.1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>2920</v>
@@ -6336,10 +6491,10 @@
         <v>0.07</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AD30" s="0" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="AF30" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(AE30="",G30,AE30),{0,1,100,1000,5000,15000,50000},{0,0.00533,0.00533,0.00209,0.00065,0.00058,0.00051}),"")</f>
@@ -6350,21 +6505,24 @@
         <v>0.00533</v>
       </c>
       <c r="AH30" s="15" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6379,7 +6537,7 @@
         <v>0.005</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>181015</v>
+        <v>235061</v>
       </c>
       <c r="L31" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K31="",G31,K31),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0,0.1,0.015,0.006,0.00268,0.00233,0.00192,0.00167,0.00147,0.00135,0.00132}),"")</f>
@@ -6390,10 +6548,10 @@
         <v>0.1</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>108568</v>
+        <v>108151</v>
       </c>
       <c r="Q31" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P31="",G31,P31),{0,1,10,100,5000,50000},{0,0.1,0.009,0.004,0.002,0.001}),"")</f>
@@ -6404,7 +6562,7 @@
         <v>0.1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="T31" s="16" t="s">
         <v>33</v>
@@ -6418,30 +6576,30 @@
         <v>0.005</v>
       </c>
       <c r="X31" s="15" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Y31" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AC31" s="15" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">BoardQty*13</f>
@@ -6449,14 +6607,14 @@
       </c>
       <c r="H32" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0.12779</v>
+        <v>0.12769</v>
       </c>
       <c r="I32" s="14" t="n">
         <f aca="false">IFERROR(G32*H32,"")</f>
-        <v>1.66127</v>
+        <v>1.65997</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>7232</v>
+        <v>7202</v>
       </c>
       <c r="L32" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K32="",G32,K32),{0,1,10,25,100,250,500,1000,2000,4000,5000,8000,10000,12000,25000,28000,50000,100000},{0,0.4,0.315,0.2656,0.2163,0.17924,0.14832,0.108,0.099,0.099,0.093,0.093,0.087,0.087,0.0798,0.0798,0.0768,0.075}),"")</f>
@@ -6467,7 +6625,7 @@
         <v>4.095</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>5598</v>
@@ -6481,10 +6639,10 @@
         <v>5.174</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="T32" s="0" t="n">
-        <v>2102</v>
+        <v>2</v>
       </c>
       <c r="V32" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(U32="",G32,U32),{0,1,10,25,50,100,250,500},{0,0.54,0.396,0.362,0.328,0.294,0.272,0.249}),"")</f>
@@ -6495,41 +6653,44 @@
         <v>5.148</v>
       </c>
       <c r="X32" s="15" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Y32" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AC32" s="15" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AD32" s="0" t="n">
-        <v>2880</v>
+        <v>6880</v>
       </c>
       <c r="AF32" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(AE32="",G32,AE32),{0,1,5,50,250,1000},{0,0.12779,0.12779,0.08519,0.06472,0.05798}),"")</f>
-        <v>0.12779</v>
+        <f aca="false">IFERROR(LOOKUP(IF(AE32="",G32,AE32),{0,1,5,50,250,1000},{0,0.12769,0.12769,0.08513,0.06467,0.05793}),"")</f>
+        <v>0.12769</v>
       </c>
       <c r="AG32" s="14" t="n">
         <f aca="false">IFERROR(IF(AE32="",G32,AE32)*AF32,"")</f>
-        <v>1.66127</v>
+        <v>1.65997</v>
       </c>
       <c r="AH32" s="15" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6544,7 +6705,7 @@
         <v>0.833</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>6909</v>
+        <v>6809</v>
       </c>
       <c r="L33" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K33="",G33,K33),{0,1,10,100,500,1000,3000},{0,1.89,1.695,1.3624,1.11936,0.92746,0.77625}),"")</f>
@@ -6555,10 +6716,10 @@
         <v>1.89</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>2649</v>
+        <v>2499</v>
       </c>
       <c r="Q33" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P33="",G33,P33),{0,1,10,25,100,250,500,1000,3000},{0,1.84,1.64,1.57,1.32,1.24,1.08,0.847,0.847}),"")</f>
@@ -6569,7 +6730,7 @@
         <v>1.84</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="T33" s="16" t="s">
         <v>33</v>
@@ -6583,21 +6744,24 @@
         <v>0.833</v>
       </c>
       <c r="X33" s="15" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6623,10 +6787,10 @@
         <v>0.42</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>13200</v>
+        <v>13155</v>
       </c>
       <c r="Q34" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P34="",G34,P34),{0,1,10,100,1000,2500,10000,25000},{0,0.412,0.341,0.208,0.16,0.137,0.127,0.123}),"")</f>
@@ -6637,7 +6801,7 @@
         <v>0.412</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>705</v>
@@ -6651,24 +6815,24 @@
         <v>0.42</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G35" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6694,10 +6858,10 @@
         <v>0.51</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>3466</v>
+        <v>3182</v>
       </c>
       <c r="Q35" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P35="",G35,P35),{0,1,10,100,1000,2500,10000,25000,50000},{0,0.522,0.392,0.212,0.159,0.137,0.129,0.118,0.116}),"")</f>
@@ -6708,7 +6872,7 @@
         <v>0.522</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>3885</v>
@@ -6722,7 +6886,7 @@
         <v>0.52</v>
       </c>
       <c r="X35" s="15" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Y35" s="0" t="n">
         <v>80</v>
@@ -6736,38 +6900,38 @@
         <v>0.3567</v>
       </c>
       <c r="AC35" s="15" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AD35" s="0" t="n">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="AF35" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(AE35="",G35,AE35),{0,1,2,10,50,250,1000},{0,0.3756,0.3756,0.2564,0.2189,0.1952,0.1716}),"")</f>
-        <v>0.3756</v>
+        <f aca="false">IFERROR(LOOKUP(IF(AE35="",G35,AE35),{0,1,2,10,50,250,1000},{0,0.3753,0.3753,0.2562,0.2187,0.1951,0.1714}),"")</f>
+        <v>0.3753</v>
       </c>
       <c r="AG35" s="14" t="n">
         <f aca="false">IFERROR(IF(AE35="",G35,AE35)*AF35,"")</f>
-        <v>0.3756</v>
+        <v>0.3753</v>
       </c>
       <c r="AH35" s="15" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6782,7 +6946,7 @@
         <v>0.277037</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>22464</v>
+        <v>22384</v>
       </c>
       <c r="L36" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K36="",G36,K36),{0,1,10,25,100,250,500,1000,2500},{0,0.48,0.378,0.3192,0.2597,0.2152,0.17808,0.13356,0.0927}),"")</f>
@@ -6793,10 +6957,10 @@
         <v>0.48</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>13239</v>
+        <v>13128</v>
       </c>
       <c r="Q36" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P36="",G36,P36),{0,1,10,25,50,100,250,500,1000,2500},{0,0.481,0.38,0.32,0.297,0.261,0.217,0.178,0.092,0.092}),"")</f>
@@ -6807,7 +6971,7 @@
         <v>0.481</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>432</v>
@@ -6821,7 +6985,7 @@
         <v>0.329</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Y36" s="0" t="n">
         <v>300</v>
@@ -6835,21 +6999,24 @@
         <v>0.277037</v>
       </c>
       <c r="AC36" s="15" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>232</v>
+        <v>243</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>244</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G37" s="0" t="n">
         <f aca="false">BoardQty*5</f>
@@ -6857,14 +7024,14 @@
       </c>
       <c r="H37" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I37" s="14" t="n">
         <f aca="false">IFERROR(G37*H37,"")</f>
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>311</v>
+        <v>2811</v>
       </c>
       <c r="L37" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K37="",G37,K37),{0,1,10,100,500,1000,2500,5000},{0,2.62,2.353,1.8911,1.55376,1.2874,1.1637,1.1206}),"")</f>
@@ -6875,10 +7042,10 @@
         <v>13.1</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="Q37" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P37="",G37,P37),{0,1,10,100,500,1000,2500,5000,10000},{0,2.55,2.17,1.73,1.51,1.25,1.17,1.13,1.12}),"")</f>
@@ -6889,35 +7056,38 @@
         <v>12.75</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>2338</v>
+        <v>2268</v>
       </c>
       <c r="V37" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(U37="",G37,U37),{0,1,10,100,500,1000},{0,2.5,2.13,1.7,1.49,1.24}),"")</f>
-        <v>2.5</v>
+        <f aca="false">IFERROR(LOOKUP(IF(U37="",G37,U37),{0,1,10,25,50,100,250,500,1000},{0,2.54,2.16,2.02,1.87,1.73,1.62,1.51,1.25}),"")</f>
+        <v>2.54</v>
       </c>
       <c r="W37" s="14" t="n">
         <f aca="false">IFERROR(IF(U37="",G37,U37)*V37,"")</f>
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="X37" s="15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>251</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -6925,11 +7095,11 @@
       </c>
       <c r="H38" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>12.66</v>
+        <v>12.84</v>
       </c>
       <c r="I38" s="14" t="n">
         <f aca="false">IFERROR(G38*H38,"")</f>
-        <v>12.66</v>
+        <v>12.84</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>3289</v>
@@ -6943,7 +7113,7 @@
         <v>13.23</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>1190</v>
@@ -6957,35 +7127,38 @@
         <v>12.87</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V38" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(U38="",G38,U38),{0,1,10,25,100},{0,12.66,11.63,11.33,9.82}),"")</f>
-        <v>12.66</v>
+        <f aca="false">IFERROR(LOOKUP(IF(U38="",G38,U38),{0,1,10,25,50,100,250,500},{0,12.84,11.81,11.2,10.59,9.97,9.48,8.87}),"")</f>
+        <v>12.84</v>
       </c>
       <c r="W38" s="14" t="n">
         <f aca="false">IFERROR(IF(U38="",G38,U38)*V38,"")</f>
-        <v>12.66</v>
+        <v>12.84</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>244</v>
+        <v>257</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>258</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G39" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -7000,7 +7173,7 @@
         <v>2.46</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="L39" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K39="",G39,K39),{0,1,10,50,100,500,1000,2500,5000},{0,2.46,2.402,2.288,2.002,1.9448,1.508,1.404,1.352}),"")</f>
@@ -7011,21 +7184,24 @@
         <v>2.46</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>249</v>
+        <v>263</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -7040,7 +7216,7 @@
         <v>0.893</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>8788</v>
+        <v>8488</v>
       </c>
       <c r="L40" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K40="",G40,K40),{0,1,10,100,500,1000,5000},{0,0.92,0.82,0.6396,0.5284,0.41715,0.3591}),"")</f>
@@ -7051,7 +7227,7 @@
         <v>0.92</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>4403</v>
@@ -7065,7 +7241,7 @@
         <v>0.893</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>9</v>
@@ -7079,21 +7255,24 @@
         <v>600</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>256</v>
+        <v>271</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>272</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G41" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -7108,7 +7287,7 @@
         <v>2.02</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>4385</v>
+        <v>4040</v>
       </c>
       <c r="L41" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K41="",G41,K41),{0,1,25,100,2500},{0,2.07,1.722,1.5645,1.56451}),"")</f>
@@ -7119,10 +7298,10 @@
         <v>2.07</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="Q41" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P41="",G41,P41),{0,1,10,25,100,2500},{0,2.09,1.97,1.64,1.5,1.5}),"")</f>
@@ -7133,7 +7312,7 @@
         <v>2.09</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>1466</v>
@@ -7147,21 +7326,24 @@
         <v>2.02</v>
       </c>
       <c r="X41" s="15" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>262</v>
+        <v>278</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>279</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -7169,14 +7351,14 @@
       </c>
       <c r="H42" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>7.05</v>
+        <v>7.08644</v>
       </c>
       <c r="I42" s="14" t="n">
         <f aca="false">IFERROR(G42*H42,"")</f>
-        <v>7.05</v>
+        <v>7.08644</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>21</v>
+        <v>2271</v>
       </c>
       <c r="L42" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K42="",G42,K42),{0,1,10,100,250,1250,2500},{0,7.37,6.657,5.5112,5.678,3.7575,3.26253}),"")</f>
@@ -7187,7 +7369,7 @@
         <v>7.37</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>846</v>
@@ -7201,21 +7383,21 @@
         <v>7.17</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>247</v>
       </c>
       <c r="V42" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(U42="",G42,U42),{0,1,10,25,50,100,250,500,1000},{0,7.05,6.37,5.9,5.63,5.27,5.04,4.59,3.71}),"")</f>
-        <v>7.05</v>
+        <f aca="false">IFERROR(LOOKUP(IF(U42="",G42,U42),{0,1,10,25,50,100},{0,7.15,6.46,6.16,5.76,5.35}),"")</f>
+        <v>7.15</v>
       </c>
       <c r="W42" s="14" t="n">
         <f aca="false">IFERROR(IF(U42="",G42,U42)*V42,"")</f>
-        <v>7.05</v>
+        <v>7.15</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Y42" s="0" t="n">
         <v>6</v>
@@ -7229,21 +7411,24 @@
         <v>7.08644</v>
       </c>
       <c r="AC42" s="15" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>269</v>
+        <v>286</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>244</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="G43" s="0" t="n">
         <f aca="false">BoardQty*1</f>
@@ -7251,14 +7436,14 @@
       </c>
       <c r="H43" s="14" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>5.1</v>
+        <v>5.22</v>
       </c>
       <c r="I43" s="14" t="n">
         <f aca="false">IFERROR(G43*H43,"")</f>
-        <v>5.1</v>
+        <v>5.22</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>1957</v>
+        <v>1897</v>
       </c>
       <c r="L43" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K43="",G43,K43),{0,1,2500},{0,5.49,5.00586}),"")</f>
@@ -7269,10 +7454,10 @@
         <v>5.49</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>1670</v>
+        <v>2330</v>
       </c>
       <c r="Q43" s="14" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(P43="",G43,P43),{0,1,10},{0,5.5,5.23}),"")</f>
@@ -7283,21 +7468,21 @@
         <v>5.5</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="T43" s="0" t="n">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="V43" s="14" t="n">
-        <f aca="false">IFERROR(LOOKUP(IF(U43="",G43,U43),{0,1,10,25,100},{0,5.1,4.9,4.86,4.78}),"")</f>
-        <v>5.1</v>
+        <f aca="false">IFERROR(LOOKUP(IF(U43="",G43,U43),{0,1,10,25,100},{0,5.22,5.01,4.97,4.89}),"")</f>
+        <v>5.22</v>
       </c>
       <c r="W43" s="14" t="n">
         <f aca="false">IFERROR(IF(U43="",G43,U43)*V43,"")</f>
-        <v>5.1</v>
+        <v>5.22</v>
       </c>
       <c r="X43" s="15" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Y43" s="0" t="n">
         <v>13</v>
@@ -7311,7 +7496,7 @@
         <v>7.59771</v>
       </c>
       <c r="AC43" s="15" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9674,2814 +9859,2837 @@
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
+    <cfRule type="cellIs" priority="9" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" priority="9" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="10" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB35">
-    <cfRule type="cellIs" priority="10" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="11" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="cellIs" priority="11" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB42">
-    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB43">
-    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="14" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7">
-    <cfRule type="cellIs" priority="14" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="15" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="cellIs" priority="15" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="16" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" priority="17" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AD20">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD21">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="19" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD29">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD21">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD30">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD29">
     <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="23" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD32">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30">
     <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="25" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD35">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD32">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="27" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD7">
+      <formula>G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD35">
     <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="29" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD8">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7">
     <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="31" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
     <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="33" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="35" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>G9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20">
-    <cfRule type="cellIs" priority="34" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="36" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" priority="35" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="37" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" priority="36" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="38" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" priority="37" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="39" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" priority="38" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="40" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" priority="39" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="41" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" priority="40" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="42" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" priority="41" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="43" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" priority="42" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="44" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AD9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20">
-    <cfRule type="cellIs" priority="43" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="45" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" priority="44" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="46" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" priority="45" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="47" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" priority="46" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="48" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" priority="47" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="49" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" priority="48" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="50" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" priority="49" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="51" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" priority="50" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="52" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" priority="51" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="53" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20">
-    <cfRule type="cellIs" priority="52" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="54" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" priority="53" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="55" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" priority="54" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="56" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" priority="55" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="57" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" priority="56" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="58" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" priority="57" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="59" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" priority="58" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="60" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" priority="59" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="61" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9">
-    <cfRule type="cellIs" priority="60" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="62" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="62" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="64" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="63" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="65" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="65" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="67" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="66" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="68" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="68" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="70" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="69" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="71" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="71" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="73" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="72" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="74" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="74" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="76" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="75" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="77" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="77" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="79" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="78" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="80" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="80" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="82" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="81" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="83" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="83" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="85" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="84" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="86" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="86" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="88" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="87" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="89" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="89" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="91" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="90" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="92" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="92" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="94" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="93" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="95" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="95" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="97" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="96" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="98" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="98" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="100" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="99" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="101" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="101" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="103" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="102" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="104" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="104" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="106" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="105" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="107" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="107" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="109" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="108" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="110" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="110" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="112" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="111" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="113" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="113" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="115" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="114" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="116" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="116" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="118" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="117" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="119" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="119" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="121" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="120" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="122" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="122" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="124" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="123" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="125" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="125" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="127" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="126" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="128" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="128" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="130" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="129" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="131" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="131" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="133" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="132" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="134" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="134" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="136" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="135" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="137" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="137" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="139" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="138" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="140" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="140" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="142" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="141" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="143" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="143" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="145" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="144" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="146" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="146" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="148" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="147" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="149" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="149" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="151" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="150" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="152" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="152" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="154" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="153" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="155" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="155" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="157" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="156" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="158" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="158" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="160" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="159" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="161" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="161" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="163" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="162" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="164" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="164" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="166" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="165" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="167" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="167" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="169" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="168" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="170" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="170" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="172" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="171" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="173" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" priority="172" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="173" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" priority="174" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="175" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" priority="176" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="177" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" priority="178" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="179" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" priority="180" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="181" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" priority="182" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="183" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" priority="184" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="185" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" priority="186" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="187" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
     <cfRule type="cellIs" priority="188" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="189" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+      <formula>G17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="cellIs" priority="190" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="191" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
     <cfRule type="cellIs" priority="192" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="193" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" priority="194" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="195" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" priority="196" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="197" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="cellIs" priority="198" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="199" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" priority="200" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="201" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
     <cfRule type="cellIs" priority="202" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="203" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="cellIs" priority="204" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="205" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
     <cfRule type="cellIs" priority="206" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="207" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="cellIs" priority="208" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="209" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="cellIs" priority="210" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="211" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
     <cfRule type="cellIs" priority="212" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="213" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="cellIs" priority="214" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="215" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="cellIs" priority="216" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="217" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" priority="218" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="219" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+      <formula>G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
     <cfRule type="cellIs" priority="220" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="221" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="cellIs" priority="222" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="223" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+      <formula>G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="cellIs" priority="224" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="225" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
     <cfRule type="cellIs" priority="226" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="227" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
     <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="229" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
+      <formula>G37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
     <cfRule type="cellIs" priority="230" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="231" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+      <formula>G38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
     <cfRule type="cellIs" priority="232" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="233" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+      <formula>G39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
     <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="235" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+      <formula>G40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="cellIs" priority="236" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="237" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+      <formula>G41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="cellIs" priority="238" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="239" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+      <formula>G42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="241" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+      <formula>G43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" priority="242" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="243" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" priority="244" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="245" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="247" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>G9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" priority="246" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="248" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" priority="247" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="249" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" priority="248" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="250" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" priority="249" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="251" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" priority="250" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="252" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" priority="251" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="253" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" priority="252" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="254" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" priority="253" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="255" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" priority="254" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="256" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" priority="255" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="257" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" priority="256" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="258" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" priority="257" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="259" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" priority="258" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="260" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" priority="259" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="261" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" priority="260" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="262" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" priority="261" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="263" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" priority="262" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="264" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" priority="263" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="265" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" priority="264" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="266" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" priority="265" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="267" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" priority="266" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="268" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" priority="267" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="269" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" priority="268" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="270" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" priority="269" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="271" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" priority="270" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="272" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" priority="271" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="273" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" priority="272" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="274" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" priority="273" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="275" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" priority="274" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="276" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="cellIs" priority="275" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="277" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" priority="276" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="278" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" priority="277" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="279" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" priority="278" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="280" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" priority="279" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="281" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" priority="280" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="282" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" priority="281" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="283" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" priority="282" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="284" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" priority="283" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="285" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" priority="284" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="286" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" priority="285" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="287" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" priority="286" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="288" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" priority="287" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="289" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" priority="288" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="290" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" priority="289" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="291" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" priority="290" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="292" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" priority="291" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="293" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" priority="292" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="294" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" priority="293" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="295" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" priority="294" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="296" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" priority="295" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="297" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" priority="296" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="298" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" priority="297" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="299" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" priority="298" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="300" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" priority="299" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="301" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" priority="300" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="302" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" priority="301" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="303" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" priority="302" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="304" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" priority="303" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="305" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" priority="304" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="306" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" priority="305" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="307" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" priority="306" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="308" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" priority="307" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="309" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" priority="308" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="310" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="cellIs" priority="309" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="311" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="cellIs" priority="310" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="312" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" priority="311" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="313" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="cellIs" priority="312" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="314" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="cellIs" priority="313" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="315" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="cellIs" priority="314" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="316" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" priority="315" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="317" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" priority="316" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="318" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" priority="317" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="319" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" priority="318" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="320" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" priority="319" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="321" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" priority="320" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="322" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" priority="321" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="323" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" priority="322" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="324" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" priority="323" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="325" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" priority="324" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="326" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" priority="325" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="327" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" priority="326" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="328" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" priority="327" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="329" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" priority="328" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="330" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" priority="329" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="331" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" priority="330" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="332" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" priority="331" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="333" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" priority="332" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="334" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" priority="333" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="335" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="cellIs" priority="334" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="336" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" priority="335" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="337" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" priority="336" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="338" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" priority="337" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="339" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="cellIs" priority="338" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="340" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" priority="339" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="341" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
-    <cfRule type="cellIs" priority="340" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="342" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" priority="341" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="343" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" priority="342" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="344" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" priority="343" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="345" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" priority="344" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="346" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="cellIs" priority="345" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="347" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" priority="346" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="348" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="cellIs" priority="347" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="349" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" priority="348" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="350" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39">
-    <cfRule type="cellIs" priority="349" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="351" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="cellIs" priority="350" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="352" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41">
-    <cfRule type="cellIs" priority="351" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="353" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42">
-    <cfRule type="cellIs" priority="352" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="354" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" priority="353" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="355" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" priority="354" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="356" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" priority="355" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="357" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" priority="356" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="358" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" priority="357" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="358" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
     <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="360" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
     <cfRule type="cellIs" priority="361" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="362" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
     <cfRule type="cellIs" priority="363" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="364" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
     <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="366" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
     <cfRule type="cellIs" priority="367" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="368" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20">
+      <formula>G17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
     <cfRule type="cellIs" priority="369" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="370" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
     <cfRule type="cellIs" priority="371" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="372" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21">
     <cfRule type="cellIs" priority="373" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="374" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
     <cfRule type="cellIs" priority="375" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="376" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
     <cfRule type="cellIs" priority="377" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="378" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O28">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
     <cfRule type="cellIs" priority="379" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="380" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28">
     <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="382" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29">
     <cfRule type="cellIs" priority="383" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="384" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O31">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30">
     <cfRule type="cellIs" priority="385" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="386" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31">
     <cfRule type="cellIs" priority="387" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="388" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32">
     <cfRule type="cellIs" priority="389" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="390" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34">
+      <formula>G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33">
     <cfRule type="cellIs" priority="391" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="392" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34">
     <cfRule type="cellIs" priority="393" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="394" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36">
+      <formula>G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35">
     <cfRule type="cellIs" priority="395" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="396" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O37">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36">
     <cfRule type="cellIs" priority="397" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="398" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
     <cfRule type="cellIs" priority="399" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="400" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40">
+      <formula>G37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38">
     <cfRule type="cellIs" priority="401" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="402" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O41">
+      <formula>G38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O40">
     <cfRule type="cellIs" priority="403" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="404" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O42">
+      <formula>G40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41">
     <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="406" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+      <formula>G41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42">
     <cfRule type="cellIs" priority="407" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="408" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
+      <formula>G42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
     <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="410" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
+      <formula>G43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
     <cfRule type="cellIs" priority="411" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="412" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
     <cfRule type="cellIs" priority="413" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="414" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="416" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>G9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" priority="415" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="417" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" priority="416" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="418" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" priority="417" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="419" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" priority="418" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="420" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" priority="419" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="421" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" priority="420" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="422" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" priority="421" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="423" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" priority="422" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="424" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="cellIs" priority="423" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>O23</formula>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="cellIs" priority="425" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>O22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="cellIs" priority="424" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="426" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="cellIs" priority="425" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="427" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="cellIs" priority="426" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="428" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="cellIs" priority="427" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="429" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" priority="428" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="430" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" priority="429" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="431" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" priority="430" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="432" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33">
-    <cfRule type="cellIs" priority="431" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="433" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="cellIs" priority="432" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="434" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="cellIs" priority="433" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="435" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="cellIs" priority="434" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="436" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37">
-    <cfRule type="cellIs" priority="435" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="437" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="cellIs" priority="436" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="438" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40">
-    <cfRule type="cellIs" priority="437" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="439" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41">
-    <cfRule type="cellIs" priority="438" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="440" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42">
-    <cfRule type="cellIs" priority="439" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="441" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43">
-    <cfRule type="cellIs" priority="440" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="442" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" priority="441" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="443" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" priority="442" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="444" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" priority="443" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="445" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="cellIs" priority="444" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="446" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" priority="445" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="447" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" priority="446" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="448" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" priority="447" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="449" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" priority="448" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="450" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="cellIs" priority="449" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="451" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" priority="450" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="452" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="cellIs" priority="451" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="453" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" priority="452" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>H23</formula>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="cellIs" priority="454" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
-    <cfRule type="cellIs" priority="453" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="455" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" priority="454" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="456" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="cellIs" priority="455" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="457" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" priority="456" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="458" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="cellIs" priority="457" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="459" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="cellIs" priority="458" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="460" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="cellIs" priority="459" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="461" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33">
-    <cfRule type="cellIs" priority="460" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="462" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="cellIs" priority="461" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="463" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="cellIs" priority="462" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="464" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="cellIs" priority="463" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="465" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="cellIs" priority="464" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="466" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="cellIs" priority="465" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="467" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="cellIs" priority="466" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="468" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" priority="467" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="469" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="cellIs" priority="468" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="470" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="cellIs" priority="469" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="471" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" priority="470" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="472" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" priority="471" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="473" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" priority="472" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="474" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" priority="473" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="475" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" priority="474" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="476" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" priority="475" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="477" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" priority="476" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="478" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" priority="477" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="479" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" priority="478" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="480" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" priority="479" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="481" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" priority="480" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="482" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" priority="481" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>I23</formula>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" priority="483" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" priority="482" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="484" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" priority="483" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="485" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28">
-    <cfRule type="cellIs" priority="484" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="486" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" priority="485" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="487" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30">
-    <cfRule type="cellIs" priority="486" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="488" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" priority="487" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="489" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" priority="488" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="490" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" priority="489" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="491" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34">
-    <cfRule type="cellIs" priority="490" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="492" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="cellIs" priority="491" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="493" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36">
-    <cfRule type="cellIs" priority="492" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="494" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" priority="493" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="495" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R38">
-    <cfRule type="cellIs" priority="494" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="496" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40">
-    <cfRule type="cellIs" priority="495" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="497" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41">
-    <cfRule type="cellIs" priority="496" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="498" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R42">
-    <cfRule type="cellIs" priority="497" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="499" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43">
-    <cfRule type="cellIs" priority="498" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="500" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" priority="499" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="501" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" priority="500" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="502" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" priority="501" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="503" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" priority="502" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="503" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18">
     <cfRule type="cellIs" priority="504" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="505" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
     <cfRule type="cellIs" priority="506" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="507" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
     <cfRule type="cellIs" priority="508" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="509" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
     <cfRule type="cellIs" priority="510" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="511" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
     <cfRule type="cellIs" priority="512" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="513" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
     <cfRule type="cellIs" priority="514" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="515" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
     <cfRule type="cellIs" priority="516" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="517" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
     <cfRule type="cellIs" priority="518" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="519" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
     <cfRule type="cellIs" priority="520" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="521" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31">
     <cfRule type="cellIs" priority="522" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="523" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T33">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T32">
     <cfRule type="cellIs" priority="524" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="525" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+      <formula>G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T33">
     <cfRule type="cellIs" priority="526" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="527" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T35">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T34">
     <cfRule type="cellIs" priority="528" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="529" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T36">
+      <formula>G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35">
     <cfRule type="cellIs" priority="530" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="531" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T37">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T36">
     <cfRule type="cellIs" priority="532" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="533" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T38">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37">
     <cfRule type="cellIs" priority="534" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="535" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
+      <formula>G37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38">
     <cfRule type="cellIs" priority="536" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="537" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T41">
+      <formula>G38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T40">
     <cfRule type="cellIs" priority="538" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="539" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T42">
+      <formula>G40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T41">
     <cfRule type="cellIs" priority="540" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="541" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T43">
+      <formula>G41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T42">
     <cfRule type="cellIs" priority="542" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="543" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
+      <formula>G42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
     <cfRule type="cellIs" priority="544" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="545" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
+      <formula>G43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
     <cfRule type="cellIs" priority="546" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="547" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T9">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
     <cfRule type="cellIs" priority="548" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="549" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="cellIs" priority="550" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="551" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>G9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="cellIs" priority="550" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="552" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" priority="551" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="553" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" priority="552" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="554" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" priority="553" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="555" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" priority="554" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>T23</formula>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="cellIs" priority="556" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>T22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" priority="555" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="557" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" priority="556" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="558" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" priority="557" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="559" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
-    <cfRule type="cellIs" priority="558" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="560" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" priority="559" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="561" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" priority="560" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="562" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" priority="561" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="563" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" priority="562" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="564" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
-    <cfRule type="cellIs" priority="563" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="565" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="cellIs" priority="564" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="566" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37">
-    <cfRule type="cellIs" priority="565" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="567" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38">
-    <cfRule type="cellIs" priority="566" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="568" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U40">
-    <cfRule type="cellIs" priority="567" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="569" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41">
-    <cfRule type="cellIs" priority="568" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="570" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="cellIs" priority="569" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="571" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U43">
-    <cfRule type="cellIs" priority="570" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="572" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" priority="571" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="573" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" priority="572" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="574" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" priority="573" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="575" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>T9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" priority="574" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="576" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" priority="575" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="577" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" priority="576" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="578" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" priority="577" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="579" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" priority="578" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>H23</formula>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="cellIs" priority="580" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" priority="579" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="581" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="cellIs" priority="580" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="582" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="cellIs" priority="581" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="583" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="cellIs" priority="582" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="584" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="cellIs" priority="583" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="585" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" priority="584" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="586" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V33">
-    <cfRule type="cellIs" priority="585" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="587" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" priority="586" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="588" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" priority="587" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="589" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" priority="588" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="590" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="cellIs" priority="589" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="591" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" priority="590" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="592" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V40">
-    <cfRule type="cellIs" priority="591" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="593" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V41">
-    <cfRule type="cellIs" priority="592" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="594" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V42">
-    <cfRule type="cellIs" priority="593" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="595" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V43">
-    <cfRule type="cellIs" priority="594" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="596" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" priority="595" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="597" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" priority="596" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="598" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" priority="597" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="599" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" priority="598" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="600" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" priority="599" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="601" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" priority="600" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="602" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" priority="601" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="603" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" priority="602" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>I23</formula>
+  <conditionalFormatting sqref="W22">
+    <cfRule type="cellIs" priority="604" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" priority="603" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="605" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="cellIs" priority="604" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="606" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" priority="605" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="607" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" priority="606" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="608" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" priority="607" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="609" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" priority="608" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="610" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33">
-    <cfRule type="cellIs" priority="609" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="611" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" priority="610" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="612" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" priority="611" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="613" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" priority="612" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="614" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" priority="613" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="615" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" priority="614" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="616" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W40">
-    <cfRule type="cellIs" priority="615" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="617" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41">
-    <cfRule type="cellIs" priority="616" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="618" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="cellIs" priority="617" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="619" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43">
-    <cfRule type="cellIs" priority="618" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="620" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" priority="619" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="621" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" priority="620" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="622" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" priority="621" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="623" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" priority="622" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="623" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y35">
     <cfRule type="cellIs" priority="624" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="625" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y36">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35">
     <cfRule type="cellIs" priority="626" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="627" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y42">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y36">
     <cfRule type="cellIs" priority="628" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="629" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y43">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y42">
     <cfRule type="cellIs" priority="630" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="631" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
+      <formula>G42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
     <cfRule type="cellIs" priority="632" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="633" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
+      <formula>G43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
     <cfRule type="cellIs" priority="634" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="635" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" priority="636" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="637" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
+    <cfRule type="cellIs" priority="638" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="639" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="cellIs" priority="636" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="640" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>Y10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35">
-    <cfRule type="cellIs" priority="637" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="641" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>Y35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36">
-    <cfRule type="cellIs" priority="638" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="642" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>Y36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" priority="639" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="643" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>Y42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z43">
-    <cfRule type="cellIs" priority="640" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="644" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>Y43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" priority="641" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="645" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>Y7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8">
-    <cfRule type="cellIs" priority="642" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="646" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>Y8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
+    <cfRule type="cellIs" priority="647" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Y9</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -12495,11 +12703,11 @@
     <hyperlink ref="X8" r:id="rId9" display="93K5997"/>
     <hyperlink ref="AC8" r:id="rId10" display="801-5221"/>
     <hyperlink ref="AH8" r:id="rId11" display="C0603C105K4RAC"/>
-    <hyperlink ref="N9" r:id="rId12" display="399-1088-1-ND"/>
-    <hyperlink ref="S9" r:id="rId13" display="80-C0603C472J5R"/>
-    <hyperlink ref="X9" r:id="rId14" display="52K5445"/>
-    <hyperlink ref="AC9" r:id="rId15" display="869-1777"/>
-    <hyperlink ref="AH9" r:id="rId16" display="C0603C472J5RAC"/>
+    <hyperlink ref="N9" r:id="rId12" display="399-1061-1-ND"/>
+    <hyperlink ref="S9" r:id="rId13" display="80-C0603C101J5G"/>
+    <hyperlink ref="X9" r:id="rId14" display="64K2833"/>
+    <hyperlink ref="AC9" r:id="rId15" display="264-4523"/>
+    <hyperlink ref="AH9" r:id="rId16" display="C0603C101J5GAC"/>
     <hyperlink ref="N10" r:id="rId17" display="732-6426-1-ND"/>
     <hyperlink ref="S10" r:id="rId18" display="710-875105345011"/>
     <hyperlink ref="AC10" r:id="rId19" display="838-7510"/>
@@ -12530,10 +12738,10 @@
     <hyperlink ref="S21" r:id="rId44" display="603-RC0603FR-07100KL"/>
     <hyperlink ref="X21" r:id="rId45" display="68R0051"/>
     <hyperlink ref="AH21" r:id="rId46" display="RC0603FR-07100K"/>
-    <hyperlink ref="N22" r:id="rId47" display="1276-6161-1-ND"/>
-    <hyperlink ref="N23" r:id="rId48" display="311-33.0HRCT-ND"/>
-    <hyperlink ref="S23" r:id="rId49" display="603-RC0603FR-0733RL"/>
-    <hyperlink ref="X23" r:id="rId50" display="68R0085"/>
+    <hyperlink ref="N22" r:id="rId47" display="311-33.0HRCT-ND"/>
+    <hyperlink ref="S22" r:id="rId48" display="603-RC0603FR-0733RL"/>
+    <hyperlink ref="X22" r:id="rId49" display="68R0085"/>
+    <hyperlink ref="N23" r:id="rId50" display="1276-6161-1-ND"/>
     <hyperlink ref="N24" r:id="rId51" display="311-51.1KHRCT-ND"/>
     <hyperlink ref="S24" r:id="rId52" display="603-RC0603FR-0751K1L"/>
     <hyperlink ref="X24" r:id="rId53" display="66R2455"/>
